--- a/data2/All States Correlation Data.xlsx
+++ b/data2/All States Correlation Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jillyutahh/Desktop/Medicare Expansion Project/Data /"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jillyutahh/github/gal/Analyzing-Medicare-Expansion/data2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A8FC037-E571-D84D-B7E4-54B12BF02BFC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61B1203A-21C6-554E-9BF2-7409E5EDF2DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13900" yWindow="1660" windowWidth="18080" windowHeight="16440" xr2:uid="{D1660A71-7A57-E74C-B5B7-19712C15A09D}"/>
+    <workbookView xWindow="-28020" yWindow="-3080" windowWidth="24360" windowHeight="16440" xr2:uid="{D1660A71-7A57-E74C-B5B7-19712C15A09D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -444,7 +444,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -456,6 +456,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -774,18 +777,21 @@
   <dimension ref="A1:U52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" customWidth="1"/>
+    <col min="9" max="9" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="43" x14ac:dyDescent="0.2">
@@ -804,19 +810,19 @@
       <c r="E1" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="7" t="s">
         <v>108</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>112</v>
       </c>
     </row>

--- a/data2/All States Correlation Data.xlsx
+++ b/data2/All States Correlation Data.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jillyutahh/github/gal/Analyzing-Medicare-Expansion/data2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61B1203A-21C6-554E-9BF2-7409E5EDF2DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31B502EE-CFE7-F84E-A80C-5298AB66006E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28020" yWindow="-3080" windowWidth="24360" windowHeight="16440" xr2:uid="{D1660A71-7A57-E74C-B5B7-19712C15A09D}"/>
+    <workbookView xWindow="4040" yWindow="1480" windowWidth="24360" windowHeight="16440" xr2:uid="{D1660A71-7A57-E74C-B5B7-19712C15A09D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -777,7 +777,7 @@
   <dimension ref="A1:U52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
